--- a/汽车-力帆科技历史数据.xlsx
+++ b/汽车-力帆科技历史数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/train/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D536A1A-1D1C-6845-9630-93E312D085FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C42C94F-1619-E142-8C3E-CA385101EE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="力帆科技资产负债表" sheetId="1" r:id="rId1"/>
@@ -4088,7 +4088,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -4101,8 +4101,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4164,10 +4166,10 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4285,7 +4287,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F8B1-614A-B298-061AB7C9A0DA}"/>
+              <c16:uniqueId val="{00000000-1197-BD4A-9F49-4238B014DD31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4350,7 +4352,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F8B1-614A-B298-061AB7C9A0DA}"/>
+              <c16:uniqueId val="{00000001-1197-BD4A-9F49-4238B014DD31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4415,7 +4417,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F8B1-614A-B298-061AB7C9A0DA}"/>
+              <c16:uniqueId val="{00000002-1197-BD4A-9F49-4238B014DD31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4480,7 +4482,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F8B1-614A-B298-061AB7C9A0DA}"/>
+              <c16:uniqueId val="{00000003-1197-BD4A-9F49-4238B014DD31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4545,7 +4547,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F8B1-614A-B298-061AB7C9A0DA}"/>
+              <c16:uniqueId val="{00000004-1197-BD4A-9F49-4238B014DD31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5343,19 +5345,19 @@
         <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -6539,7 +6541,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8576,7 +8578,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11889,7 +11891,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13017,8 +13019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13214,19 +13216,19 @@
       <c r="A10" t="s">
         <v>1345</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>45291</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>44926</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>44561</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>44196</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>43830</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -13275,7 +13277,7 @@
       <c r="F12" s="3">
         <v>8.1879194630872482E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>6.351678741178346E-2</v>
       </c>
     </row>
@@ -13298,7 +13300,7 @@
       <c r="F13" s="3">
         <v>7.0738255033557046E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>9.3858640743358701E-2</v>
       </c>
     </row>
@@ -13321,7 +13323,7 @@
       <c r="F14" s="3">
         <v>5.3422818791946311E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>3.9081006419918872E-2</v>
       </c>
     </row>
@@ -13344,7 +13346,7 @@
       <c r="F15" s="3">
         <v>-0.92735824161073832</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>-0.79309916279848769</v>
       </c>
     </row>
@@ -13367,7 +13369,7 @@
       <c r="F16" s="3">
         <v>0.13529953917050691</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
